--- a/tecnica_analise/2022/bts-asian2022.xlsx
+++ b/tecnica_analise/2022/bts-asian2022.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7890" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7890" uniqueCount="829">
   <si>
     <t>DATA</t>
   </si>
@@ -2551,6 +2551,9 @@
   </si>
   <si>
     <t>USA - USL CHAMPIONSHIP---</t>
+  </si>
+  <si>
+    <t>SOUTH KOREA - K LEAGUE 2--</t>
   </si>
 </sst>
 </file>
@@ -6730,11 +6733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="266021328"/>
-        <c:axId val="266020936"/>
+        <c:axId val="278401528"/>
+        <c:axId val="276000656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266021328"/>
+        <c:axId val="278401528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6776,7 +6779,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266020936"/>
+        <c:crossAx val="276000656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6784,7 +6787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266020936"/>
+        <c:axId val="276000656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6834,7 +6837,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266021328"/>
+        <c:crossAx val="278401528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7159,11 +7162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="266022112"/>
-        <c:axId val="266020544"/>
+        <c:axId val="372087592"/>
+        <c:axId val="372087984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266022112"/>
+        <c:axId val="372087592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7205,7 +7208,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266020544"/>
+        <c:crossAx val="372087984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7213,7 +7216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266020544"/>
+        <c:axId val="372087984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7263,7 +7266,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266022112"/>
+        <c:crossAx val="372087592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7338,7 +7341,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7583,11 +7585,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="266382104"/>
-        <c:axId val="266382496"/>
+        <c:axId val="372085632"/>
+        <c:axId val="372086024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266382104"/>
+        <c:axId val="372085632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7629,7 +7631,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266382496"/>
+        <c:crossAx val="372086024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7637,7 +7639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266382496"/>
+        <c:axId val="372086024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7687,7 +7689,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266382104"/>
+        <c:crossAx val="372085632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7762,7 +7764,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8082,11 +8083,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="266381320"/>
-        <c:axId val="266382888"/>
+        <c:axId val="372084848"/>
+        <c:axId val="372084456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266381320"/>
+        <c:axId val="372084848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8128,7 +8129,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266382888"/>
+        <c:crossAx val="372084456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8136,7 +8137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266382888"/>
+        <c:axId val="372084456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8186,7 +8187,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266381320"/>
+        <c:crossAx val="372084848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8261,7 +8262,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8596,11 +8596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="266379752"/>
-        <c:axId val="266380144"/>
+        <c:axId val="372087200"/>
+        <c:axId val="211886200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266379752"/>
+        <c:axId val="372087200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8642,7 +8642,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266380144"/>
+        <c:crossAx val="211886200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8650,7 +8650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266380144"/>
+        <c:axId val="211886200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8700,7 +8700,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266379752"/>
+        <c:crossAx val="372087200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8775,7 +8775,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8972,11 +8971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="268140024"/>
-        <c:axId val="268140416"/>
+        <c:axId val="282120984"/>
+        <c:axId val="282118240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="268140024"/>
+        <c:axId val="282120984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9018,7 +9017,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268140416"/>
+        <c:crossAx val="282118240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9026,7 +9025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268140416"/>
+        <c:axId val="282118240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9076,7 +9075,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268140024"/>
+        <c:crossAx val="282120984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32602,8 +32601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C445" workbookViewId="0">
-      <selection activeCell="L477" sqref="L477"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A385" sqref="A385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45817,18 +45816,18 @@
     <row r="456" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I456" s="62">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J456" s="6" t="s">
-        <v>56</v>
+        <v>828</v>
       </c>
       <c r="K456" s="64">
         <f t="shared" si="18"/>
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="L456" s="61">
         <f t="shared" si="19"/>
-        <v>2.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -46121,13 +46120,13 @@
     <row r="474" spans="9:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I474" s="6">
         <f>SUM(I444:I473)</f>
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J474" s="6"/>
       <c r="K474" s="6"/>
       <c r="L474" s="6">
         <f>SUM(L444:L473)</f>
-        <v>129.02400000000003</v>
+        <v>126.08400000000002</v>
       </c>
       <c r="N474" s="6"/>
     </row>
@@ -52162,7 +52161,7 @@
         <v>4760</v>
       </c>
       <c r="G20" s="72">
-        <f t="shared" ref="G20:G38" si="5">F20-D$92</f>
+        <f t="shared" ref="G20:G35" si="5">F20-D$92</f>
         <v>1960</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -53413,7 +53412,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <f t="shared" ref="G53:G66" si="7">F53-D$92</f>
+        <f t="shared" ref="G53:G65" si="7">F53-D$92</f>
         <v>-2800</v>
       </c>
       <c r="H53" s="6" t="s">
@@ -59822,7 +59821,7 @@
         <v>4984</v>
       </c>
       <c r="G3" s="72">
-        <f t="shared" ref="G3:G66" si="1">F3-D$98</f>
+        <f t="shared" ref="G3:G64" si="1">F3-D$98</f>
         <v>2184</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -62070,7 +62069,7 @@
         <v>5236</v>
       </c>
       <c r="G69" s="72">
-        <f t="shared" ref="G67:G85" si="5">F69-D$98</f>
+        <f t="shared" ref="G69:G85" si="5">F69-D$98</f>
         <v>2436</v>
       </c>
       <c r="H69" s="6" t="s">

--- a/tecnica_analise/2022/bts-asian2022.xlsx
+++ b/tecnica_analise/2022/bts-asian2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="3" r:id="rId1"/>
@@ -6555,7 +6555,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6700,25 +6699,25 @@
                   <c:v>114252</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111452</c:v>
+                  <c:v>116632</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112600</c:v>
+                  <c:v>117780</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>109800</c:v>
+                  <c:v>114980</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112348</c:v>
+                  <c:v>117528</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>112348</c:v>
+                  <c:v>117528</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>109548</c:v>
+                  <c:v>114728</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>110472</c:v>
+                  <c:v>115652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6734,11 +6733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="210746992"/>
-        <c:axId val="210747384"/>
+        <c:axId val="214471576"/>
+        <c:axId val="214472360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210746992"/>
+        <c:axId val="214471576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,7 +6779,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210747384"/>
+        <c:crossAx val="214472360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6788,7 +6787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210747384"/>
+        <c:axId val="214472360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6838,7 +6837,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210746992"/>
+        <c:crossAx val="214471576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6949,7 +6948,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7164,11 +7162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="255439720"/>
-        <c:axId val="255440112"/>
+        <c:axId val="256398816"/>
+        <c:axId val="256399208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255439720"/>
+        <c:axId val="256398816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7210,7 +7208,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255440112"/>
+        <c:crossAx val="256399208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7218,7 +7216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255440112"/>
+        <c:axId val="256399208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7268,7 +7266,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255439720"/>
+        <c:crossAx val="256398816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7343,7 +7341,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7588,11 +7585,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="255438544"/>
-        <c:axId val="255442072"/>
+        <c:axId val="256402344"/>
+        <c:axId val="256401952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255438544"/>
+        <c:axId val="256402344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7634,7 +7631,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255442072"/>
+        <c:crossAx val="256401952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7642,7 +7639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255442072"/>
+        <c:axId val="256401952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7692,7 +7689,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255438544"/>
+        <c:crossAx val="256402344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7767,7 +7764,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8087,11 +8083,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="255440896"/>
-        <c:axId val="255440504"/>
+        <c:axId val="256399992"/>
+        <c:axId val="256400776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255440896"/>
+        <c:axId val="256399992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8133,7 +8129,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255440504"/>
+        <c:crossAx val="256400776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8141,7 +8137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255440504"/>
+        <c:axId val="256400776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8191,7 +8187,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255440896"/>
+        <c:crossAx val="256399992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8601,11 +8597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="258883168"/>
-        <c:axId val="258883952"/>
+        <c:axId val="268566640"/>
+        <c:axId val="268567816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258883168"/>
+        <c:axId val="268566640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8647,7 +8643,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258883952"/>
+        <c:crossAx val="268567816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8655,7 +8651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258883952"/>
+        <c:axId val="268567816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8705,7 +8701,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258883168"/>
+        <c:crossAx val="268566640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8780,7 +8776,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8977,11 +8972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="258885128"/>
-        <c:axId val="268514760"/>
+        <c:axId val="268568992"/>
+        <c:axId val="268569776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258885128"/>
+        <c:axId val="268568992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9023,7 +9018,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268514760"/>
+        <c:crossAx val="268569776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9031,7 +9026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268514760"/>
+        <c:axId val="268569776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9081,7 +9076,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258885128"/>
+        <c:crossAx val="268568992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13282,8 +13277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13453,11 +13448,11 @@
       </c>
       <c r="H9" s="64">
         <f>SUMIFS(fevereiroInvest!$G$2:$G$13,fevereiroInvest!$I$2:$I$13,G9)+SUMIFS(fevereiroInvest!$G$2:$G$20,fevereiroInvest!$I$2:$I$20,G9)+SUMIFS(abrilInvest!$G$2:$G$21,abrilInvest!$I$2:$I$21,G9)+SUMIFS(maioInvest!$G$2:$G$20,maioInvest!$I$2:$I$20,G9)+SUMIFS(junhoInvest!$G$2:$G$12,junhoInvest!$I$2:$I$12,G9)+SUMIFS(julhoInvest!$G$2:$G$13,julhoInvest!$I$2:$I$13,G9)+SUMIFS(agostoInvest!$G$2:$G$16,agostoInvest!$I$2:$I$16,G9)+SUMIFS(setembroInvest!$G$2:$G$20,setembroInvest!$I$2:$I$20,G9)+SUMIFS(outubroInvest!$G$2:$G$27,outubroInvest!$I$2:$I$27,G9)+SUMIFS(novembroInvest!$G$2:$G$10,novembroInvest!$I$2:$I$10,G9)+SUMIFS(dezembroInvest!$G$2:$G$13,dezembroInvest!$I$2:$I$13,G9)</f>
-        <v>4788</v>
+        <v>6388</v>
       </c>
       <c r="I9" s="61">
         <f>H9/D$12*100</f>
-        <v>4.7880000000000003</v>
+        <v>6.3880000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13475,11 +13470,11 @@
       </c>
       <c r="H10" s="64">
         <f>SUMIFS(fevereiroInvest!$G$2:$G$13,fevereiroInvest!$I$2:$I$13,G10)+SUMIFS(fevereiroInvest!$G$2:$G$20,fevereiroInvest!$I$2:$I$20,G10)+SUMIFS(abrilInvest!$G$2:$G$21,abrilInvest!$I$2:$I$21,G10)+SUMIFS(maioInvest!$G$2:$G$20,maioInvest!$I$2:$I$20,G10)+SUMIFS(junhoInvest!$G$2:$G$12,junhoInvest!$I$2:$I$12,G10)+SUMIFS(julhoInvest!$G$2:$G$13,julhoInvest!$I$2:$I$13,G10)+SUMIFS(agostoInvest!$G$2:$G$16,agostoInvest!$I$2:$I$16,G10)+SUMIFS(setembroInvest!$G$2:$G$20,setembroInvest!$I$2:$I$20,G10)+SUMIFS(outubroInvest!$G$2:$G$27,outubroInvest!$I$2:$I$27,G10)+SUMIFS(novembroInvest!$G$2:$G$10,novembroInvest!$I$2:$I$10,G10)+SUMIFS(dezembroInvest!$G$2:$G$13,dezembroInvest!$I$2:$I$13,G10)</f>
-        <v>9856</v>
+        <v>10096</v>
       </c>
       <c r="I10" s="61">
         <f t="shared" si="0"/>
-        <v>9.8559999999999999</v>
+        <v>10.096</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13497,11 +13492,11 @@
       </c>
       <c r="H11" s="64">
         <f>SUMIFS(fevereiroInvest!$G$2:$G$13,fevereiroInvest!$I$2:$I$13,G11)+SUMIFS(fevereiroInvest!$G$2:$G$20,fevereiroInvest!$I$2:$I$20,G11)+SUMIFS(abrilInvest!$G$2:$G$21,abrilInvest!$I$2:$I$21,G11)+SUMIFS(maioInvest!$G$2:$G$20,maioInvest!$I$2:$I$20,G11)+SUMIFS(junhoInvest!$G$2:$G$12,junhoInvest!$I$2:$I$12,G11)+SUMIFS(julhoInvest!$G$2:$G$13,julhoInvest!$I$2:$I$13,G11)+SUMIFS(agostoInvest!$G$2:$G$16,agostoInvest!$I$2:$I$16,G11)+SUMIFS(setembroInvest!$G$2:$G$20,setembroInvest!$I$2:$I$20,G11)+SUMIFS(outubroInvest!$G$2:$G$27,outubroInvest!$I$2:$I$27,G11)+SUMIFS(novembroInvest!$G$2:$G$10,novembroInvest!$I$2:$I$10,G11)+SUMIFS(dezembroInvest!$G$2:$G$13,dezembroInvest!$I$2:$I$13,G11)</f>
-        <v>5940</v>
+        <v>6340</v>
       </c>
       <c r="I11" s="61">
         <f t="shared" si="0"/>
-        <v>5.94</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13550,11 +13545,11 @@
       </c>
       <c r="H13" s="64">
         <f>SUMIFS(fevereiroInvest!$G$2:$G$13,fevereiroInvest!$I$2:$I$13,G13)+SUMIFS(fevereiroInvest!$G$2:$G$20,fevereiroInvest!$I$2:$I$20,G13)+SUMIFS(abrilInvest!$G$2:$G$21,abrilInvest!$I$2:$I$21,G13)+SUMIFS(maioInvest!$G$2:$G$20,maioInvest!$I$2:$I$20,G13)+SUMIFS(junhoInvest!$G$2:$G$12,junhoInvest!$I$2:$I$12,G13)+SUMIFS(julhoInvest!$G$2:$G$13,julhoInvest!$I$2:$I$13,G13)+SUMIFS(agostoInvest!$G$2:$G$16,agostoInvest!$I$2:$I$16,G13)+SUMIFS(setembroInvest!$G$2:$G$20,setembroInvest!$I$2:$I$20,G13)+SUMIFS(outubroInvest!$G$2:$G$27,outubroInvest!$I$2:$I$27,G13)+SUMIFS(novembroInvest!$G$2:$G$10,novembroInvest!$I$2:$I$10,G13)+SUMIFS(dezembroInvest!$G$2:$G$13,dezembroInvest!$I$2:$I$13,G13)</f>
-        <v>26140</v>
+        <v>29340</v>
       </c>
       <c r="I13" s="61">
         <f t="shared" si="0"/>
-        <v>26.14</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13818,11 +13813,11 @@
       </c>
       <c r="H25" s="64">
         <f>SUMIFS(fevereiroInvest!$G$2:$G$13,fevereiroInvest!$I$2:$I$13,G25)+SUMIFS(fevereiroInvest!$G$2:$G$20,fevereiroInvest!$I$2:$I$20,G25)+SUMIFS(abrilInvest!$G$2:$G$21,abrilInvest!$I$2:$I$21,G25)+SUMIFS(maioInvest!$G$2:$G$20,maioInvest!$I$2:$I$20,G25)+SUMIFS(junhoInvest!$G$2:$G$12,junhoInvest!$I$2:$I$12,G25)+SUMIFS(julhoInvest!$G$2:$G$13,julhoInvest!$I$2:$I$13,G25)+SUMIFS(agostoInvest!$G$2:$G$16,agostoInvest!$I$2:$I$16,G25)+SUMIFS(setembroInvest!$G$2:$G$20,setembroInvest!$I$2:$I$20,G25)+SUMIFS(outubroInvest!$G$2:$G$27,outubroInvest!$I$2:$I$27,G25)+SUMIFS(novembroInvest!$G$2:$G$10,novembroInvest!$I$2:$I$10,G25)+SUMIFS(dezembroInvest!$G$2:$G$13,dezembroInvest!$I$2:$I$13,G25)</f>
-        <v>-3164</v>
+        <v>-1564</v>
       </c>
       <c r="I25" s="61">
         <f t="shared" si="0"/>
-        <v>-3.1640000000000001</v>
+        <v>-1.5640000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13901,7 +13896,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6">
         <f>SUM(I5:I28)</f>
-        <v>68.284000000000006</v>
+        <v>75.324000000000012</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -13962,8 +13957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16945,8 +16940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19198,8 +19193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20350,14 +20345,15 @@
         <v>11</v>
       </c>
       <c r="E26" s="73" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F26" s="72">
-        <v>0</v>
+        <f>C26*D$46</f>
+        <v>5180</v>
       </c>
       <c r="G26" s="72">
         <f t="shared" si="4"/>
-        <v>-2800</v>
+        <v>2380</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>149</v>
@@ -20374,11 +20370,11 @@
       </c>
       <c r="L26" s="90">
         <f t="shared" si="0"/>
-        <v>-756</v>
+        <v>4424</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>-0.75600000000000001</v>
+        <v>4.4240000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -20413,7 +20409,7 @@
       </c>
       <c r="J27" s="88">
         <f t="shared" si="2"/>
-        <v>111452</v>
+        <v>116632</v>
       </c>
       <c r="K27" s="5">
         <v>44738</v>
@@ -20458,7 +20454,7 @@
       </c>
       <c r="J28" s="88">
         <f t="shared" si="2"/>
-        <v>112600</v>
+        <v>117780</v>
       </c>
       <c r="K28" s="5">
         <v>44739</v>
@@ -20504,7 +20500,7 @@
       </c>
       <c r="J29" s="88">
         <f t="shared" si="2"/>
-        <v>109800</v>
+        <v>114980</v>
       </c>
       <c r="K29" s="5">
         <v>44740</v>
@@ -20548,7 +20544,7 @@
       </c>
       <c r="J30" s="88">
         <f t="shared" si="2"/>
-        <v>112348</v>
+        <v>117528</v>
       </c>
       <c r="K30" s="5">
         <v>44741</v>
@@ -20593,7 +20589,7 @@
       </c>
       <c r="J31" s="88">
         <f t="shared" si="2"/>
-        <v>112348</v>
+        <v>117528</v>
       </c>
       <c r="K31" s="5">
         <v>44742</v>
@@ -20639,7 +20635,7 @@
       </c>
       <c r="J32" s="88">
         <f t="shared" si="2"/>
-        <v>109548</v>
+        <v>114728</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -20653,7 +20649,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="88">
         <f>J32+G32</f>
-        <v>110472</v>
+        <v>115652</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -20690,7 +20686,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="16">
         <f>COUNTIF(G2:G32,"&lt;0")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="36"/>
@@ -20705,7 +20701,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="17">
         <f>D35-D36</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="36"/>
@@ -20720,7 +20716,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6">
         <f>D37/D35*100</f>
-        <v>70.967741935483872</v>
+        <v>74.193548387096769</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="36"/>
@@ -20765,7 +20761,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="17">
         <f>D38-D39</f>
-        <v>12.664187299410898</v>
+        <v>15.889993751023795</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="36"/>
@@ -20780,7 +20776,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="17">
         <f>D41/1</f>
-        <v>12.664187299410898</v>
+        <v>15.889993751023795</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="36"/>
@@ -20853,7 +20849,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="13">
         <f>SUM(G2:G32)</f>
-        <v>10472</v>
+        <v>15652</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="36"/>
@@ -20868,7 +20864,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="12">
         <f>D47/D43*100</f>
-        <v>10.472</v>
+        <v>15.651999999999999</v>
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="36"/>
@@ -20909,7 +20905,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24068,8 +24064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I44"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30253,7 +30249,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32607,8 +32603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N474"/>
   <sheetViews>
-    <sheetView topLeftCell="C445" workbookViewId="0">
-      <selection activeCell="J457" sqref="J457"/>
+    <sheetView topLeftCell="E436" workbookViewId="0">
+      <selection activeCell="L465" sqref="L465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51285,8 +51281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59728,8 +59724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="B75" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62889,8 +62885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66138,8 +66134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67681,7 +67677,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67744,7 +67740,7 @@
       </c>
       <c r="G2" s="72">
         <f t="shared" ref="G2:G9" si="0">F2-D$23</f>
-        <v>-2800</v>
+        <v>-1200</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>154</v>
@@ -67774,7 +67770,7 @@
       </c>
       <c r="G3" s="72">
         <f t="shared" si="0"/>
-        <v>-2800</v>
+        <v>-1200</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>145</v>
@@ -67801,11 +67797,11 @@
       </c>
       <c r="F4" s="72">
         <f>C4*D$23</f>
-        <v>5180</v>
+        <v>2220</v>
       </c>
       <c r="G4" s="72">
         <f t="shared" si="0"/>
-        <v>2380</v>
+        <v>1020</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>149</v>
@@ -67835,7 +67831,7 @@
       </c>
       <c r="G5" s="72">
         <f t="shared" si="0"/>
-        <v>-2800</v>
+        <v>-1200</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>146</v>
@@ -67865,7 +67861,7 @@
       </c>
       <c r="G6" s="72">
         <f t="shared" si="0"/>
-        <v>-2800</v>
+        <v>-1200</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>154</v>
@@ -67895,7 +67891,7 @@
       </c>
       <c r="G7" s="72">
         <f t="shared" si="0"/>
-        <v>-2800</v>
+        <v>-1200</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>146</v>
@@ -67925,7 +67921,7 @@
       </c>
       <c r="G8" s="72">
         <f t="shared" si="0"/>
-        <v>-2800</v>
+        <v>-1200</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>150</v>
@@ -67952,11 +67948,11 @@
       </c>
       <c r="F9" s="72">
         <f>C9*D$23</f>
-        <v>4900</v>
+        <v>2100</v>
       </c>
       <c r="G9" s="72">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>148</v>
@@ -68167,8 +68163,8 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="41">
-        <f>D22*2.8</f>
-        <v>2800</v>
+        <f>D22*1.2</f>
+        <v>1200</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="36"/>
@@ -68184,7 +68180,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="13">
         <f>SUM(G2:G9)</f>
-        <v>-12320</v>
+        <v>-5280</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="36"/>
@@ -68200,7 +68196,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="12">
         <f>D24/D20*100</f>
-        <v>-12.32</v>
+        <v>-5.28</v>
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="36"/>
@@ -68240,8 +68236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68401,11 +68397,11 @@
       </c>
       <c r="G8" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F8)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F8)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F8)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F8)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F8)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F8)</f>
-        <v>8221.9999999999982</v>
+        <v>13401.999999999998</v>
       </c>
       <c r="H8" s="61">
         <f t="shared" si="0"/>
-        <v>8.2219999999999995</v>
+        <v>13.401999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68922,7 +68918,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6">
         <f>SUM(H3:H26)</f>
-        <v>49.732000000000006</v>
+        <v>54.911999999999999</v>
       </c>
     </row>
     <row r="38" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -69041,11 +69037,11 @@
       </c>
       <c r="G46" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F46)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F46)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F46)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F46)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F46)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F46)</f>
-        <v>8221.9999999999982</v>
+        <v>13401.999999999998</v>
       </c>
       <c r="H46" s="61">
         <f t="shared" si="1"/>
-        <v>8.2219999999999995</v>
+        <v>13.401999999999997</v>
       </c>
     </row>
     <row r="47" spans="5:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69463,7 +69459,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6">
         <f>SUM(H41:H64)</f>
-        <v>39.756</v>
+        <v>44.935999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -78031,7 +78027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -83863,7 +83859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/tecnica_analise/2022/bts-asian2022.xlsx
+++ b/tecnica_analise/2022/bts-asian2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7890" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7890" uniqueCount="830">
   <si>
     <t>DATA</t>
   </si>
@@ -2554,6 +2554,9 @@
   </si>
   <si>
     <t>SOUTH KOREA - K LEAGUE 2--</t>
+  </si>
+  <si>
+    <t>STAKE BET MATRIZ-FULL 1,2%</t>
   </si>
 </sst>
 </file>
@@ -6733,11 +6736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="214471576"/>
-        <c:axId val="214472360"/>
+        <c:axId val="208951568"/>
+        <c:axId val="258194144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214471576"/>
+        <c:axId val="208951568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6779,7 +6782,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214472360"/>
+        <c:crossAx val="258194144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6787,7 +6790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214472360"/>
+        <c:axId val="258194144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6837,7 +6840,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214471576"/>
+        <c:crossAx val="208951568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7162,11 +7165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="256398816"/>
-        <c:axId val="256399208"/>
+        <c:axId val="258191792"/>
+        <c:axId val="258192184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256398816"/>
+        <c:axId val="258191792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7208,7 +7211,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256399208"/>
+        <c:crossAx val="258192184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7216,7 +7219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256399208"/>
+        <c:axId val="258192184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7266,7 +7269,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256398816"/>
+        <c:crossAx val="258191792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7341,6 +7344,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7413,163 +7417,163 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99000</c:v>
+                  <c:v>98800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100080</c:v>
+                  <c:v>100096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100080</c:v>
+                  <c:v>100096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100990</c:v>
+                  <c:v>101188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101410</c:v>
+                  <c:v>101188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102090</c:v>
+                  <c:v>101188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101090</c:v>
+                  <c:v>101188</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102080</c:v>
+                  <c:v>102376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102930</c:v>
+                  <c:v>103396</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103530</c:v>
+                  <c:v>103396</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>104710</c:v>
+                  <c:v>104812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105180</c:v>
+                  <c:v>104812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>105600</c:v>
+                  <c:v>104812</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>106200</c:v>
+                  <c:v>104812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107120</c:v>
+                  <c:v>105916</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107540</c:v>
+                  <c:v>105916</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>106540</c:v>
+                  <c:v>104716</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>105540</c:v>
+                  <c:v>103516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>106490</c:v>
+                  <c:v>104656</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>107300</c:v>
+                  <c:v>105628</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>106300</c:v>
+                  <c:v>104428</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107180</c:v>
+                  <c:v>105484</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>107590</c:v>
+                  <c:v>105484</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>107970</c:v>
+                  <c:v>105484</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>108920</c:v>
+                  <c:v>106624</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>108920</c:v>
+                  <c:v>106624</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>109570</c:v>
+                  <c:v>106624</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>109570</c:v>
+                  <c:v>106624</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>110400</c:v>
+                  <c:v>107620</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>110400</c:v>
+                  <c:v>107620</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>110400</c:v>
+                  <c:v>107620</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>111630</c:v>
+                  <c:v>109096</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>112400</c:v>
+                  <c:v>110020</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>113230</c:v>
+                  <c:v>111016</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>113640</c:v>
+                  <c:v>111016</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>114470</c:v>
+                  <c:v>112012</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>114470</c:v>
+                  <c:v>112012</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>115410</c:v>
+                  <c:v>113140</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>115410</c:v>
+                  <c:v>113140</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>116460</c:v>
+                  <c:v>114400</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>115460</c:v>
+                  <c:v>114400</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>116650</c:v>
+                  <c:v>114400</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>117480</c:v>
+                  <c:v>115396</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>118310</c:v>
+                  <c:v>116392</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>119570</c:v>
+                  <c:v>117904</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>120320</c:v>
+                  <c:v>118804</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>120970</c:v>
+                  <c:v>118804</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122140</c:v>
+                  <c:v>120208</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>122940</c:v>
+                  <c:v>121168</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>122940</c:v>
+                  <c:v>121168</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>121940</c:v>
+                  <c:v>121168</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>122840</c:v>
+                  <c:v>122248</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>123730</c:v>
+                  <c:v>123316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7585,11 +7589,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="256402344"/>
-        <c:axId val="256401952"/>
+        <c:axId val="258191400"/>
+        <c:axId val="258194536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256402344"/>
+        <c:axId val="258191400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7631,7 +7635,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256401952"/>
+        <c:crossAx val="258194536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7639,7 +7643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256401952"/>
+        <c:axId val="258194536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7689,7 +7693,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256402344"/>
+        <c:crossAx val="258191400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8083,11 +8087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="256399992"/>
-        <c:axId val="256400776"/>
+        <c:axId val="258193360"/>
+        <c:axId val="258193752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256399992"/>
+        <c:axId val="258193360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8129,7 +8133,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256400776"/>
+        <c:crossAx val="258193752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8137,7 +8141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256400776"/>
+        <c:axId val="258193752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8187,7 +8191,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256399992"/>
+        <c:crossAx val="258193360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8262,7 +8266,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8597,11 +8600,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="268566640"/>
-        <c:axId val="268567816"/>
+        <c:axId val="259320496"/>
+        <c:axId val="259320888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="268566640"/>
+        <c:axId val="259320496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8643,7 +8646,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268567816"/>
+        <c:crossAx val="259320888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8651,7 +8654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268567816"/>
+        <c:axId val="259320888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8701,7 +8704,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268566640"/>
+        <c:crossAx val="259320496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8972,11 +8975,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="268568992"/>
-        <c:axId val="268569776"/>
+        <c:axId val="259321672"/>
+        <c:axId val="270162280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="268568992"/>
+        <c:axId val="259321672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9018,7 +9021,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268569776"/>
+        <c:crossAx val="270162280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9026,7 +9029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268569776"/>
+        <c:axId val="270162280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9076,7 +9079,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268568992"/>
+        <c:crossAx val="259321672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26886,7 +26889,7 @@
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30248,8 +30251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30315,7 +30318,7 @@
       </c>
       <c r="G2" s="72">
         <f t="shared" ref="G2:G33" si="0">F2-D$67</f>
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>139</v>
@@ -30353,11 +30356,11 @@
       </c>
       <c r="F3" s="72">
         <f>C3*D$67</f>
-        <v>2080</v>
+        <v>2496</v>
       </c>
       <c r="G3" s="72">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>1296</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>140</v>
@@ -30367,7 +30370,7 @@
       </c>
       <c r="J3" s="87">
         <f>J2+G2</f>
-        <v>99000</v>
+        <v>98800</v>
       </c>
       <c r="K3" s="5">
         <v>44775</v>
@@ -30395,7 +30398,7 @@
       </c>
       <c r="F4" s="72">
         <f>C4*D$67</f>
-        <v>1370</v>
+        <v>1644.0000000000002</v>
       </c>
       <c r="G4" s="72">
         <v>0</v>
@@ -30408,7 +30411,7 @@
       </c>
       <c r="J4" s="87">
         <f t="shared" ref="J4:J55" si="2">J3+G3</f>
-        <v>100080</v>
+        <v>100096</v>
       </c>
       <c r="K4" s="5">
         <v>44776</v>
@@ -30436,11 +30439,11 @@
       </c>
       <c r="F5" s="72">
         <f>C5*D$67</f>
-        <v>1910</v>
+        <v>2292</v>
       </c>
       <c r="G5" s="72">
         <f t="shared" si="0"/>
-        <v>910</v>
+        <v>1092</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>141</v>
@@ -30450,14 +30453,14 @@
       </c>
       <c r="J5" s="87">
         <f t="shared" si="2"/>
-        <v>100080</v>
+        <v>100096</v>
       </c>
       <c r="K5" s="5">
         <v>44777</v>
       </c>
       <c r="L5" s="90">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -30478,11 +30481,10 @@
       </c>
       <c r="F6" s="72">
         <f>C6*D$67</f>
-        <v>1420</v>
+        <v>1704</v>
       </c>
       <c r="G6" s="72">
-        <f t="shared" si="0"/>
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>143</v>
@@ -30492,7 +30494,7 @@
       </c>
       <c r="J6" s="87">
         <f t="shared" si="2"/>
-        <v>100990</v>
+        <v>101188</v>
       </c>
       <c r="K6" s="5">
         <v>44778</v>
@@ -30520,11 +30522,10 @@
       </c>
       <c r="F7" s="72">
         <f>C7*D$67</f>
-        <v>1680</v>
+        <v>2016</v>
       </c>
       <c r="G7" s="72">
-        <f t="shared" si="0"/>
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>143</v>
@@ -30534,14 +30535,14 @@
       </c>
       <c r="J7" s="87">
         <f t="shared" si="2"/>
-        <v>101410</v>
+        <v>101188</v>
       </c>
       <c r="K7" s="5">
         <v>44779</v>
       </c>
       <c r="L7" s="90">
         <f t="shared" si="1"/>
-        <v>3080</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -30564,8 +30565,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="72">
-        <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>142</v>
@@ -30575,14 +30575,14 @@
       </c>
       <c r="J8" s="87">
         <f t="shared" si="2"/>
-        <v>102090</v>
+        <v>101188</v>
       </c>
       <c r="K8" s="5">
         <v>44780</v>
       </c>
       <c r="L8" s="90">
         <f t="shared" si="1"/>
-        <v>2630</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -30603,11 +30603,11 @@
       </c>
       <c r="F9" s="72">
         <f t="shared" ref="F9:F17" si="3">C9*D$67</f>
-        <v>1990</v>
+        <v>2388</v>
       </c>
       <c r="G9" s="72">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>1188</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>142</v>
@@ -30617,7 +30617,7 @@
       </c>
       <c r="J9" s="87">
         <f t="shared" si="2"/>
-        <v>101090</v>
+        <v>101188</v>
       </c>
       <c r="K9" s="5">
         <v>44781</v>
@@ -30645,11 +30645,11 @@
       </c>
       <c r="F10" s="72">
         <f t="shared" si="3"/>
-        <v>1850</v>
+        <v>2220</v>
       </c>
       <c r="G10" s="72">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>1020</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>144</v>
@@ -30659,7 +30659,7 @@
       </c>
       <c r="J10" s="87">
         <f t="shared" si="2"/>
-        <v>102080</v>
+        <v>102376</v>
       </c>
       <c r="K10" s="5">
         <v>44782</v>
@@ -30687,11 +30687,10 @@
       </c>
       <c r="F11" s="72">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>1920</v>
       </c>
       <c r="G11" s="72">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>145</v>
@@ -30701,7 +30700,7 @@
       </c>
       <c r="J11" s="87">
         <f t="shared" si="2"/>
-        <v>102930</v>
+        <v>103396</v>
       </c>
       <c r="K11" s="5">
         <v>44783</v>
@@ -30729,11 +30728,11 @@
       </c>
       <c r="F12" s="72">
         <f t="shared" si="3"/>
-        <v>2180</v>
+        <v>2616</v>
       </c>
       <c r="G12" s="72">
         <f t="shared" si="0"/>
-        <v>1180</v>
+        <v>1416</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>140</v>
@@ -30743,7 +30742,7 @@
       </c>
       <c r="J12" s="87">
         <f t="shared" si="2"/>
-        <v>103530</v>
+        <v>103396</v>
       </c>
       <c r="K12" s="5">
         <v>44784</v>
@@ -30771,11 +30770,10 @@
       </c>
       <c r="F13" s="72">
         <f t="shared" si="3"/>
-        <v>1470</v>
+        <v>1764</v>
       </c>
       <c r="G13" s="72">
-        <f t="shared" si="0"/>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>146</v>
@@ -30785,14 +30783,14 @@
       </c>
       <c r="J13" s="87">
         <f t="shared" si="2"/>
-        <v>104710</v>
+        <v>104812</v>
       </c>
       <c r="K13" s="5">
         <v>44785</v>
       </c>
       <c r="L13" s="90">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -30813,11 +30811,10 @@
       </c>
       <c r="F14" s="72">
         <f t="shared" si="3"/>
-        <v>1420</v>
+        <v>1704</v>
       </c>
       <c r="G14" s="72">
-        <f t="shared" si="0"/>
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>147</v>
@@ -30827,14 +30824,14 @@
       </c>
       <c r="J14" s="87">
         <f t="shared" si="2"/>
-        <v>105180</v>
+        <v>104812</v>
       </c>
       <c r="K14" s="5">
         <v>44786</v>
       </c>
       <c r="L14" s="90">
         <f t="shared" si="1"/>
-        <v>2360</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -30855,11 +30852,10 @@
       </c>
       <c r="F15" s="72">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>1920</v>
       </c>
       <c r="G15" s="72">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>147</v>
@@ -30869,14 +30865,14 @@
       </c>
       <c r="J15" s="87">
         <f t="shared" si="2"/>
-        <v>105600</v>
+        <v>104812</v>
       </c>
       <c r="K15" s="5">
         <v>44787</v>
       </c>
       <c r="L15" s="90">
         <f t="shared" si="1"/>
-        <v>1380</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -30897,11 +30893,11 @@
       </c>
       <c r="F16" s="72">
         <f t="shared" si="3"/>
-        <v>1920</v>
+        <v>2304</v>
       </c>
       <c r="G16" s="72">
         <f t="shared" si="0"/>
-        <v>920</v>
+        <v>1104</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>148</v>
@@ -30911,7 +30907,7 @@
       </c>
       <c r="J16" s="87">
         <f t="shared" si="2"/>
-        <v>106200</v>
+        <v>104812</v>
       </c>
       <c r="K16" s="5">
         <v>44788</v>
@@ -30939,11 +30935,10 @@
       </c>
       <c r="F17" s="72">
         <f t="shared" si="3"/>
-        <v>1420</v>
+        <v>1704</v>
       </c>
       <c r="G17" s="72">
-        <f t="shared" si="0"/>
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>148</v>
@@ -30953,14 +30948,14 @@
       </c>
       <c r="J17" s="87">
         <f t="shared" si="2"/>
-        <v>107120</v>
+        <v>105916</v>
       </c>
       <c r="K17" s="5">
         <v>44789</v>
       </c>
       <c r="L17" s="90">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -30984,7 +30979,7 @@
       </c>
       <c r="G18" s="72">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>141</v>
@@ -30994,7 +30989,7 @@
       </c>
       <c r="J18" s="87">
         <f t="shared" si="2"/>
-        <v>107540</v>
+        <v>105916</v>
       </c>
       <c r="K18" s="5">
         <v>44790</v>
@@ -31025,7 +31020,7 @@
       </c>
       <c r="G19" s="72">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>141</v>
@@ -31035,7 +31030,7 @@
       </c>
       <c r="J19" s="87">
         <f t="shared" si="2"/>
-        <v>106540</v>
+        <v>104716</v>
       </c>
       <c r="K19" s="5">
         <v>44791</v>
@@ -31063,11 +31058,11 @@
       </c>
       <c r="F20" s="72">
         <f>C20*D$67</f>
-        <v>1950</v>
+        <v>2340</v>
       </c>
       <c r="G20" s="72">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>1140</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>142</v>
@@ -31077,14 +31072,14 @@
       </c>
       <c r="J20" s="87">
         <f t="shared" si="2"/>
-        <v>105540</v>
+        <v>103516</v>
       </c>
       <c r="K20" s="5">
         <v>44792</v>
       </c>
       <c r="L20" s="90">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>996</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -31105,11 +31100,11 @@
       </c>
       <c r="F21" s="72">
         <f>C21*D$67</f>
-        <v>1810</v>
+        <v>2172</v>
       </c>
       <c r="G21" s="72">
         <f t="shared" si="0"/>
-        <v>810</v>
+        <v>972</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>142</v>
@@ -31119,14 +31114,14 @@
       </c>
       <c r="J21" s="87">
         <f t="shared" si="2"/>
-        <v>106490</v>
+        <v>104656</v>
       </c>
       <c r="K21" s="5">
         <v>44793</v>
       </c>
       <c r="L21" s="90">
         <f t="shared" si="1"/>
-        <v>6250</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -31150,7 +31145,7 @@
       </c>
       <c r="G22" s="72">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>149</v>
@@ -31160,14 +31155,14 @@
       </c>
       <c r="J22" s="87">
         <f t="shared" si="2"/>
-        <v>107300</v>
+        <v>105628</v>
       </c>
       <c r="K22" s="5">
         <v>44794</v>
       </c>
       <c r="L22" s="90">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>996</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -31188,11 +31183,11 @@
       </c>
       <c r="F23" s="72">
         <f t="shared" ref="F23:F28" si="4">C23*D$67</f>
-        <v>1880</v>
+        <v>2256</v>
       </c>
       <c r="G23" s="72">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>1056</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>149</v>
@@ -31202,7 +31197,7 @@
       </c>
       <c r="J23" s="87">
         <f t="shared" si="2"/>
-        <v>106300</v>
+        <v>104428</v>
       </c>
       <c r="K23" s="5">
         <v>44795</v>
@@ -31230,11 +31225,10 @@
       </c>
       <c r="F24" s="72">
         <f t="shared" si="4"/>
-        <v>1410</v>
+        <v>1692</v>
       </c>
       <c r="G24" s="72">
-        <f t="shared" si="0"/>
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>141</v>
@@ -31244,7 +31238,7 @@
       </c>
       <c r="J24" s="87">
         <f t="shared" si="2"/>
-        <v>107180</v>
+        <v>105484</v>
       </c>
       <c r="K24" s="5">
         <v>44796</v>
@@ -31272,11 +31266,10 @@
       </c>
       <c r="F25" s="72">
         <f t="shared" si="4"/>
-        <v>1380</v>
+        <v>1655.9999999999998</v>
       </c>
       <c r="G25" s="72">
-        <f t="shared" si="0"/>
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>149</v>
@@ -31286,7 +31279,7 @@
       </c>
       <c r="J25" s="87">
         <f t="shared" si="2"/>
-        <v>107590</v>
+        <v>105484</v>
       </c>
       <c r="K25" s="5">
         <v>44797</v>
@@ -31314,11 +31307,11 @@
       </c>
       <c r="F26" s="72">
         <f t="shared" si="4"/>
-        <v>1950</v>
+        <v>2340</v>
       </c>
       <c r="G26" s="72">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>1140</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>149</v>
@@ -31328,7 +31321,7 @@
       </c>
       <c r="J26" s="87">
         <f t="shared" si="2"/>
-        <v>107970</v>
+        <v>105484</v>
       </c>
       <c r="K26" s="5">
         <v>44798</v>
@@ -31356,7 +31349,7 @@
       </c>
       <c r="F27" s="72">
         <f t="shared" si="4"/>
-        <v>1340</v>
+        <v>1608</v>
       </c>
       <c r="G27" s="72">
         <v>0</v>
@@ -31369,14 +31362,14 @@
       </c>
       <c r="J27" s="87">
         <f t="shared" si="2"/>
-        <v>108920</v>
+        <v>106624</v>
       </c>
       <c r="K27" s="5">
         <v>44799</v>
       </c>
       <c r="L27" s="90">
         <f t="shared" si="1"/>
-        <v>830</v>
+        <v>996</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -31397,11 +31390,10 @@
       </c>
       <c r="F28" s="72">
         <f t="shared" si="4"/>
-        <v>1650</v>
+        <v>1980</v>
       </c>
       <c r="G28" s="72">
-        <f t="shared" si="0"/>
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>152</v>
@@ -31411,7 +31403,7 @@
       </c>
       <c r="J28" s="87">
         <f t="shared" si="2"/>
-        <v>108920</v>
+        <v>106624</v>
       </c>
       <c r="K28" s="5">
         <v>44800</v>
@@ -31451,14 +31443,14 @@
       </c>
       <c r="J29" s="87">
         <f t="shared" si="2"/>
-        <v>109570</v>
+        <v>106624</v>
       </c>
       <c r="K29" s="5">
         <v>44801</v>
       </c>
       <c r="L29" s="90">
         <f t="shared" si="1"/>
-        <v>4630</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -31479,11 +31471,11 @@
       </c>
       <c r="F30" s="72">
         <f>C30*D$67</f>
-        <v>1830</v>
+        <v>2196</v>
       </c>
       <c r="G30" s="72">
         <f t="shared" si="0"/>
-        <v>830</v>
+        <v>996</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>140</v>
@@ -31493,7 +31485,7 @@
       </c>
       <c r="J30" s="87">
         <f t="shared" si="2"/>
-        <v>109570</v>
+        <v>106624</v>
       </c>
       <c r="K30" s="5">
         <v>44802</v>
@@ -31533,14 +31525,14 @@
       </c>
       <c r="J31" s="87">
         <f t="shared" si="2"/>
-        <v>110400</v>
+        <v>107620</v>
       </c>
       <c r="K31" s="5">
         <v>44803</v>
       </c>
       <c r="L31" s="90">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -31561,7 +31553,7 @@
       </c>
       <c r="F32" s="72">
         <f t="shared" ref="F32:F39" si="5">C32*D$67</f>
-        <v>1330</v>
+        <v>1596</v>
       </c>
       <c r="G32" s="72">
         <v>0</v>
@@ -31574,14 +31566,14 @@
       </c>
       <c r="J32" s="87">
         <f t="shared" si="2"/>
-        <v>110400</v>
+        <v>107620</v>
       </c>
       <c r="K32" s="5">
         <v>44804</v>
       </c>
       <c r="L32" s="90">
         <f t="shared" si="1"/>
-        <v>1790</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31602,11 +31594,11 @@
       </c>
       <c r="F33" s="72">
         <f t="shared" si="5"/>
-        <v>2230</v>
+        <v>2676</v>
       </c>
       <c r="G33" s="72">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>1476</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>148</v>
@@ -31616,7 +31608,7 @@
       </c>
       <c r="J33" s="87">
         <f t="shared" si="2"/>
-        <v>110400</v>
+        <v>107620</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31637,11 +31629,11 @@
       </c>
       <c r="F34" s="72">
         <f t="shared" si="5"/>
-        <v>1770</v>
+        <v>2124</v>
       </c>
       <c r="G34" s="72">
         <f t="shared" ref="G34:G54" si="6">F34-D$67</f>
-        <v>770</v>
+        <v>924</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>148</v>
@@ -31651,7 +31643,7 @@
       </c>
       <c r="J34" s="87">
         <f t="shared" si="2"/>
-        <v>111630</v>
+        <v>109096</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31672,11 +31664,11 @@
       </c>
       <c r="F35" s="72">
         <f t="shared" si="5"/>
-        <v>1830</v>
+        <v>2196</v>
       </c>
       <c r="G35" s="72">
         <f t="shared" si="6"/>
-        <v>830</v>
+        <v>996</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>153</v>
@@ -31686,7 +31678,7 @@
       </c>
       <c r="J35" s="87">
         <f t="shared" si="2"/>
-        <v>112400</v>
+        <v>110020</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31707,11 +31699,10 @@
       </c>
       <c r="F36" s="72">
         <f t="shared" si="5"/>
-        <v>1410</v>
+        <v>1692</v>
       </c>
       <c r="G36" s="72">
-        <f t="shared" si="6"/>
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>154</v>
@@ -31721,7 +31712,7 @@
       </c>
       <c r="J36" s="87">
         <f t="shared" si="2"/>
-        <v>113230</v>
+        <v>111016</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31742,11 +31733,11 @@
       </c>
       <c r="F37" s="72">
         <f t="shared" si="5"/>
-        <v>1830</v>
+        <v>2196</v>
       </c>
       <c r="G37" s="72">
         <f t="shared" si="6"/>
-        <v>830</v>
+        <v>996</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>140</v>
@@ -31756,7 +31747,7 @@
       </c>
       <c r="J37" s="87">
         <f t="shared" si="2"/>
-        <v>113640</v>
+        <v>111016</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31777,7 +31768,7 @@
       </c>
       <c r="F38" s="72">
         <f t="shared" si="5"/>
-        <v>1330</v>
+        <v>1596</v>
       </c>
       <c r="G38" s="72">
         <v>0</v>
@@ -31790,7 +31781,7 @@
       </c>
       <c r="J38" s="87">
         <f t="shared" si="2"/>
-        <v>114470</v>
+        <v>112012</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31811,11 +31802,11 @@
       </c>
       <c r="F39" s="72">
         <f t="shared" si="5"/>
-        <v>1940</v>
+        <v>2328</v>
       </c>
       <c r="G39" s="72">
         <f t="shared" si="6"/>
-        <v>940</v>
+        <v>1128</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>149</v>
@@ -31825,7 +31816,7 @@
       </c>
       <c r="J39" s="87">
         <f t="shared" si="2"/>
-        <v>114470</v>
+        <v>112012</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31858,7 +31849,7 @@
       </c>
       <c r="J40" s="87">
         <f t="shared" si="2"/>
-        <v>115410</v>
+        <v>113140</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31879,11 +31870,11 @@
       </c>
       <c r="F41" s="72">
         <f>C41*D$67</f>
-        <v>2050</v>
+        <v>2460</v>
       </c>
       <c r="G41" s="72">
         <f t="shared" si="6"/>
-        <v>1050</v>
+        <v>1260</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>148</v>
@@ -31893,7 +31884,7 @@
       </c>
       <c r="J41" s="87">
         <f t="shared" si="2"/>
-        <v>115410</v>
+        <v>113140</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31916,8 +31907,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <f t="shared" si="6"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>151</v>
@@ -31927,7 +31917,7 @@
       </c>
       <c r="J42" s="87">
         <f t="shared" si="2"/>
-        <v>116460</v>
+        <v>114400</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31948,11 +31938,10 @@
       </c>
       <c r="F43" s="72">
         <f t="shared" ref="F43:F51" si="7">C43*D$67</f>
-        <v>2190</v>
+        <v>2628</v>
       </c>
       <c r="G43" s="72">
-        <f t="shared" si="6"/>
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>142</v>
@@ -31962,7 +31951,7 @@
       </c>
       <c r="J43" s="87">
         <f t="shared" si="2"/>
-        <v>115460</v>
+        <v>114400</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -31983,11 +31972,11 @@
       </c>
       <c r="F44" s="72">
         <f t="shared" si="7"/>
-        <v>1830</v>
+        <v>2196</v>
       </c>
       <c r="G44" s="72">
         <f t="shared" si="6"/>
-        <v>830</v>
+        <v>996</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>153</v>
@@ -31997,7 +31986,7 @@
       </c>
       <c r="J44" s="87">
         <f t="shared" si="2"/>
-        <v>116650</v>
+        <v>114400</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32018,11 +32007,11 @@
       </c>
       <c r="F45" s="72">
         <f t="shared" si="7"/>
-        <v>1830</v>
+        <v>2196</v>
       </c>
       <c r="G45" s="72">
         <f t="shared" si="6"/>
-        <v>830</v>
+        <v>996</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>148</v>
@@ -32032,7 +32021,7 @@
       </c>
       <c r="J45" s="87">
         <f t="shared" si="2"/>
-        <v>117480</v>
+        <v>115396</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32053,11 +32042,11 @@
       </c>
       <c r="F46" s="72">
         <f t="shared" si="7"/>
-        <v>2260</v>
+        <v>2711.9999999999995</v>
       </c>
       <c r="G46" s="72">
         <f t="shared" si="6"/>
-        <v>1260</v>
+        <v>1511.9999999999995</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>140</v>
@@ -32067,7 +32056,7 @@
       </c>
       <c r="J46" s="87">
         <f t="shared" si="2"/>
-        <v>118310</v>
+        <v>116392</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32088,11 +32077,11 @@
       </c>
       <c r="F47" s="72">
         <f t="shared" si="7"/>
-        <v>1750</v>
+        <v>2100</v>
       </c>
       <c r="G47" s="72">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>140</v>
@@ -32102,7 +32091,7 @@
       </c>
       <c r="J47" s="87">
         <f t="shared" si="2"/>
-        <v>119570</v>
+        <v>117904</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32123,11 +32112,10 @@
       </c>
       <c r="F48" s="72">
         <f t="shared" si="7"/>
-        <v>1650</v>
+        <v>1980</v>
       </c>
       <c r="G48" s="72">
-        <f t="shared" si="6"/>
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>145</v>
@@ -32137,7 +32125,7 @@
       </c>
       <c r="J48" s="87">
         <f t="shared" si="2"/>
-        <v>120320</v>
+        <v>118804</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32158,11 +32146,11 @@
       </c>
       <c r="F49" s="72">
         <f t="shared" si="7"/>
-        <v>2170</v>
+        <v>2604</v>
       </c>
       <c r="G49" s="72">
         <f t="shared" si="6"/>
-        <v>1170</v>
+        <v>1404</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>142</v>
@@ -32172,7 +32160,7 @@
       </c>
       <c r="J49" s="87">
         <f t="shared" si="2"/>
-        <v>120970</v>
+        <v>118804</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32193,11 +32181,11 @@
       </c>
       <c r="F50" s="72">
         <f t="shared" si="7"/>
-        <v>1800</v>
+        <v>2160</v>
       </c>
       <c r="G50" s="72">
         <f t="shared" si="6"/>
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>142</v>
@@ -32207,7 +32195,7 @@
       </c>
       <c r="J50" s="87">
         <f t="shared" si="2"/>
-        <v>122140</v>
+        <v>120208</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32228,7 +32216,7 @@
       </c>
       <c r="F51" s="72">
         <f t="shared" si="7"/>
-        <v>1320</v>
+        <v>1584</v>
       </c>
       <c r="G51" s="72">
         <v>0</v>
@@ -32241,7 +32229,7 @@
       </c>
       <c r="J51" s="87">
         <f t="shared" si="2"/>
-        <v>122940</v>
+        <v>121168</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32264,8 +32252,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <f t="shared" si="6"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>145</v>
@@ -32275,7 +32262,7 @@
       </c>
       <c r="J52" s="87">
         <f t="shared" si="2"/>
-        <v>122940</v>
+        <v>121168</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32296,11 +32283,11 @@
       </c>
       <c r="F53" s="72">
         <f>C53*D$67</f>
-        <v>1900</v>
+        <v>2280</v>
       </c>
       <c r="G53" s="72">
         <f t="shared" si="6"/>
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>157</v>
@@ -32310,7 +32297,7 @@
       </c>
       <c r="J53" s="87">
         <f t="shared" si="2"/>
-        <v>121940</v>
+        <v>121168</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32331,11 +32318,11 @@
       </c>
       <c r="F54" s="72">
         <f>C54*D$67</f>
-        <v>1890</v>
+        <v>2268</v>
       </c>
       <c r="G54" s="72">
         <f t="shared" si="6"/>
-        <v>890</v>
+        <v>1068</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>158</v>
@@ -32345,7 +32332,7 @@
       </c>
       <c r="J54" s="87">
         <f t="shared" si="2"/>
-        <v>122840</v>
+        <v>122248</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -32359,7 +32346,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="87">
         <f t="shared" si="2"/>
-        <v>123730</v>
+        <v>123316</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -32385,7 +32372,7 @@
       <c r="C57" s="6"/>
       <c r="D57" s="16">
         <f>COUNTIF(G2:G53,"&lt;0")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="36"/>
@@ -32400,7 +32387,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="17">
         <f>D56-D57</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="36"/>
@@ -32415,7 +32402,7 @@
       <c r="C59" s="6"/>
       <c r="D59" s="6">
         <f>D58/D56*100</f>
-        <v>86.79245283018868</v>
+        <v>92.452830188679243</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="36"/>
@@ -32460,7 +32447,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="17">
         <f>D59-D60</f>
-        <v>29.451762578106027</v>
+        <v>35.112139936596591</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="36"/>
@@ -32475,7 +32462,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="17">
         <f>D62/1</f>
-        <v>29.451762578106027</v>
+        <v>35.112139936596591</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="36"/>
@@ -32528,12 +32515,12 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="40" t="s">
-        <v>764</v>
+        <v>829</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="41">
-        <f>D66*1</f>
-        <v>1000</v>
+        <f>D66*1.2</f>
+        <v>1200</v>
       </c>
       <c r="E67" s="52"/>
       <c r="F67" s="36"/>
@@ -32548,7 +32535,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="13">
         <f>SUM(G2:G54)</f>
-        <v>23730</v>
+        <v>23316</v>
       </c>
       <c r="E68" s="52"/>
       <c r="F68" s="36"/>
@@ -32563,7 +32550,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="12">
         <f>D68/D64*100</f>
-        <v>23.73</v>
+        <v>23.315999999999999</v>
       </c>
       <c r="E69" s="52"/>
       <c r="F69" s="36"/>
@@ -68313,11 +68300,11 @@
       </c>
       <c r="G4" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F4)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F4)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F4)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F4)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F4)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F4)</f>
-        <v>13488</v>
+        <v>13252</v>
       </c>
       <c r="H4" s="61">
         <f t="shared" ref="H4:H32" si="0">G4/C$10*100</f>
-        <v>13.488</v>
+        <v>13.252000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68355,11 +68342,11 @@
       </c>
       <c r="G6" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F6)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F6)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F6)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F6)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F6)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F6)</f>
-        <v>-3538.0000000000005</v>
+        <v>-3728.0000000000005</v>
       </c>
       <c r="H6" s="61">
         <f t="shared" si="0"/>
-        <v>-3.5380000000000003</v>
+        <v>-3.7280000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68397,11 +68384,11 @@
       </c>
       <c r="G8" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F8)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F8)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F8)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F8)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F8)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F8)</f>
-        <v>13401.999999999998</v>
+        <v>14336</v>
       </c>
       <c r="H8" s="61">
         <f t="shared" si="0"/>
-        <v>13.401999999999997</v>
+        <v>14.335999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68418,11 +68405,11 @@
       </c>
       <c r="G9" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F9)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F9)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F9)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F9)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F9)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F9)</f>
-        <v>13488</v>
+        <v>13252</v>
       </c>
       <c r="H9" s="61">
         <f t="shared" si="0"/>
-        <v>13.488</v>
+        <v>13.252000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -68521,11 +68508,11 @@
       </c>
       <c r="G13" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F13)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F13)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F13)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F13)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F13)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F13)</f>
-        <v>890</v>
+        <v>1068</v>
       </c>
       <c r="H13" s="61">
         <f t="shared" si="0"/>
-        <v>0.89</v>
+        <v>1.0680000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68542,11 +68529,11 @@
       </c>
       <c r="G14" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F14)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F14)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F14)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F14)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F14)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F14)</f>
-        <v>632</v>
+        <v>1432</v>
       </c>
       <c r="H14" s="61">
         <f t="shared" si="0"/>
-        <v>0.63200000000000001</v>
+        <v>1.4319999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68563,11 +68550,11 @@
       </c>
       <c r="G15" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F15)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F15)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F15)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F15)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F15)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F15)</f>
-        <v>6058</v>
+        <v>5740</v>
       </c>
       <c r="H15" s="61">
         <f t="shared" si="0"/>
-        <v>6.0579999999999998</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68668,11 +68655,11 @@
       </c>
       <c r="G20" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F20)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F20)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F20)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F20)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F20)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F20)</f>
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="H20" s="61">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68689,11 +68676,11 @@
       </c>
       <c r="G21" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F21)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F21)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F21)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F21)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F21)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F21)</f>
-        <v>4586.0000000000009</v>
+        <v>3756.0000000000009</v>
       </c>
       <c r="H21" s="61">
         <f t="shared" si="0"/>
-        <v>4.5860000000000012</v>
+        <v>3.7560000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68710,11 +68697,11 @@
       </c>
       <c r="G22" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F22)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F22)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F22)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F22)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F22)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F22)</f>
-        <v>1744</v>
+        <v>992</v>
       </c>
       <c r="H22" s="61">
         <f t="shared" si="0"/>
-        <v>1.744</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68836,11 +68823,11 @@
       </c>
       <c r="G28" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F28)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F28)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F28)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F28)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F28)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F28)</f>
-        <v>-1838.0000000000005</v>
+        <v>-2092.0000000000005</v>
       </c>
       <c r="H28" s="61">
         <f t="shared" si="0"/>
-        <v>-1.8380000000000003</v>
+        <v>-2.0920000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68853,11 +68840,11 @@
       </c>
       <c r="G29" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F29)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F29)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F29)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F29)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F29)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F29)</f>
-        <v>1180</v>
+        <v>1416</v>
       </c>
       <c r="H29" s="61">
         <f t="shared" si="0"/>
-        <v>1.18</v>
+        <v>1.4160000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -68918,7 +68905,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6">
         <f>SUM(H3:H26)</f>
-        <v>54.911999999999999</v>
+        <v>53.612000000000002</v>
       </c>
     </row>
     <row r="38" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -68969,11 +68956,11 @@
       </c>
       <c r="G42" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F42)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F42)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F42)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F42)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F42)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F42)</f>
-        <v>13488</v>
+        <v>13252</v>
       </c>
       <c r="H42" s="61">
         <f t="shared" ref="H42:H70" si="1">G42/C$10*100</f>
-        <v>13.488</v>
+        <v>13.252000000000001</v>
       </c>
     </row>
     <row r="43" spans="5:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69037,11 +69024,11 @@
       </c>
       <c r="G46" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F46)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F46)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F46)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F46)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F46)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F46)</f>
-        <v>13401.999999999998</v>
+        <v>14336</v>
       </c>
       <c r="H46" s="61">
         <f t="shared" si="1"/>
-        <v>13.401999999999997</v>
+        <v>14.335999999999999</v>
       </c>
     </row>
     <row r="47" spans="5:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69122,11 +69109,11 @@
       </c>
       <c r="G51" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F51)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F51)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F51)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F51)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F51)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F51)</f>
-        <v>890</v>
+        <v>1068</v>
       </c>
       <c r="H51" s="61">
         <f t="shared" si="1"/>
-        <v>0.89</v>
+        <v>1.0680000000000001</v>
       </c>
     </row>
     <row r="52" spans="5:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69156,11 +69143,11 @@
       </c>
       <c r="G53" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F53)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F53)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F53)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F53)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F53)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F53)</f>
-        <v>6058</v>
+        <v>5740</v>
       </c>
       <c r="H53" s="61">
         <f t="shared" si="1"/>
-        <v>6.0579999999999998</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="54" spans="5:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69258,11 +69245,11 @@
       </c>
       <c r="G59" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F59)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F59)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F59)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F59)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F59)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F59)</f>
-        <v>4586.0000000000009</v>
+        <v>3756.0000000000009</v>
       </c>
       <c r="H59" s="61">
         <f t="shared" si="1"/>
-        <v>4.5860000000000012</v>
+        <v>3.7560000000000011</v>
       </c>
     </row>
     <row r="60" spans="5:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69275,11 +69262,11 @@
       </c>
       <c r="G60" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F60)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F60)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F60)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F60)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F60)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F60)</f>
-        <v>1744</v>
+        <v>992</v>
       </c>
       <c r="H60" s="61">
         <f t="shared" si="1"/>
-        <v>1.744</v>
+        <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="61" spans="5:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69377,11 +69364,11 @@
       </c>
       <c r="G66" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F66)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F66)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F66)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F66)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F66)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F66)</f>
-        <v>-1838.0000000000005</v>
+        <v>-2092.0000000000005</v>
       </c>
       <c r="H66" s="61">
         <f t="shared" si="1"/>
-        <v>-1.8380000000000003</v>
+        <v>-2.0920000000000005</v>
       </c>
     </row>
     <row r="67" spans="5:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69394,11 +69381,11 @@
       </c>
       <c r="G67" s="64">
         <f>SUMIFS(junhoInvestT!$G$2:$G$32,junhoInvestT!$I$2:$I$32,F67)+SUMIFS(julhoInvestT!$G$2:$G$45,julhoInvestT!$I$2:$I$45,F67)+SUMIFS(agostoInvestT!$G$2:$G$55,agostoInvestT!$I$2:$I$55,F67)+SUMIFS(setembroInvestT!$G$2:$G$80,setembroInvestT!$I$2:$I$80,F67)+SUMIFS(outubroInvestT!$G$2:$G$86,outubroInvestT!$I$2:$I$86,F67)+SUMIFS(novembroInvestT!$G$2:$G$39,novembroInvestT!$I$2:$I$39,F67)</f>
-        <v>1180</v>
+        <v>1416</v>
       </c>
       <c r="H67" s="61">
         <f t="shared" si="1"/>
-        <v>1.18</v>
+        <v>1.4160000000000001</v>
       </c>
     </row>
     <row r="68" spans="5:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69459,7 +69446,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6">
         <f>SUM(H41:H64)</f>
-        <v>44.935999999999993</v>
+        <v>43.911999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -78027,7 +78014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -83860,7 +83847,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
